--- a/人工抽检备份文件/111.xlsx
+++ b/人工抽检备份文件/111.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -516,9 +516,15 @@
     <t>EMP.CARD_ID</t>
   </si>
   <si>
+    <t>WORKCOP</t>
+  </si>
+  <si>
     <t>P200.BASEE</t>
   </si>
   <si>
+    <t>P246.BASEP</t>
+  </si>
+  <si>
     <t>P245.BASEP</t>
   </si>
   <si>
@@ -535,9 +541,6 @@
   </si>
   <si>
     <t>P202.SUM</t>
-  </si>
-  <si>
-    <t>P246.BASEP</t>
   </si>
   <si>
     <t>P201.SUME</t>
@@ -2077,7 +2080,7 @@
         <v>158</v>
       </c>
       <c r="D3" t="s" s="73">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s" s="73">
         <v>156</v>
@@ -2086,73 +2089,73 @@
         <v>156</v>
       </c>
       <c r="G3" t="s" s="73">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s" s="73">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s" s="73">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s" s="73">
         <v>160</v>
       </c>
-      <c r="J3" t="s" s="73">
-        <v>159</v>
-      </c>
       <c r="K3" t="s" s="73">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s" s="73">
         <v>156</v>
       </c>
       <c r="M3" t="s" s="73">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s" s="73">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s" s="73">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s" s="73">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s" s="73">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s" s="73">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S3" t="s" s="73">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T3" t="s" s="73">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="U3" t="s" s="73">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V3" t="s" s="73">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W3" t="s" s="73">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X3" t="s" s="73">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y3" t="s" s="73">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z3" t="s" s="73">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s" s="73">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB3" t="s" s="73">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC3" t="s" s="73">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s" s="73">
         <v>156</v>
@@ -2164,13 +2167,13 @@
         <v>156</v>
       </c>
       <c r="AG3" t="s" s="73">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH3" t="s" s="73">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AI3" t="s" s="73">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ3" t="s" s="73">
         <v>156</v>
@@ -2182,7 +2185,7 @@
         <v>156</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="4" spans="1:38">
+    <row r="4" spans="1:38">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -2292,7 +2295,7 @@
       <c r="AK4" s="61"/>
       <c r="AL4" s="62"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="5" s="1" spans="1:38">
+    <row customFormat="1" r="5" s="1" spans="1:38">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="6" s="1" spans="1:38">
+    <row customFormat="1" r="6" s="1" spans="1:38">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="7" s="1" spans="1:38">
+    <row customFormat="1" r="7" s="1" spans="1:38">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="8" s="1" spans="1:38">
+    <row customFormat="1" r="8" s="1" spans="1:38">
       <c r="A8" s="18">
         <v>4</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="9" s="1" spans="1:38">
+    <row customFormat="1" r="9" s="1" spans="1:38">
       <c r="A9" s="18">
         <v>5</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="10" s="1" spans="1:38">
+    <row customFormat="1" r="10" s="1" spans="1:38">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="11" s="1" spans="1:38">
+    <row customFormat="1" r="11" s="1" spans="1:38">
       <c r="A11" s="18">
         <v>7</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="12" s="1" spans="1:38">
+    <row customFormat="1" r="12" s="1" spans="1:38">
       <c r="A12" s="18">
         <v>8</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="13" s="1" spans="1:38">
+    <row customFormat="1" r="13" s="1" spans="1:38">
       <c r="A13" s="18">
         <v>9</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="14" s="1" spans="1:38">
+    <row customFormat="1" r="14" s="1" spans="1:38">
       <c r="A14" s="18">
         <v>10</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="15" s="1" spans="1:38">
+    <row customFormat="1" r="15" s="1" spans="1:38">
       <c r="A15" s="18">
         <v>11</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="16" s="1" spans="1:38">
+    <row customFormat="1" r="16" s="1" spans="1:38">
       <c r="A16" s="18">
         <v>12</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="17" s="1" spans="1:38">
+    <row customFormat="1" r="17" s="1" spans="1:38">
       <c r="A17" s="18">
         <v>13</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="18" s="1" spans="1:38">
+    <row customFormat="1" r="18" s="1" spans="1:38">
       <c r="A18" s="18">
         <v>14</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="19" s="1" spans="1:38">
+    <row customFormat="1" r="19" s="1" spans="1:38">
       <c r="A19" s="18">
         <v>15</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="20" s="1" spans="1:38">
+    <row customFormat="1" r="20" s="1" spans="1:38">
       <c r="A20" s="18">
         <v>16</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="21" s="1" spans="1:38">
+    <row customFormat="1" r="21" s="1" spans="1:38">
       <c r="A21" s="18">
         <v>17</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="22" s="1" spans="1:38">
+    <row customFormat="1" r="22" s="1" spans="1:38">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="23" s="1" spans="1:38">
+    <row customFormat="1" r="23" s="1" spans="1:38">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="24" s="1" spans="1:38">
+    <row customFormat="1" r="24" s="1" spans="1:38">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="25" s="1" spans="1:38">
+    <row customFormat="1" r="25" s="1" spans="1:38">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="26" s="1" spans="1:38">
+    <row customFormat="1" r="26" s="1" spans="1:38">
       <c r="A26" s="18">
         <v>22</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="27" s="1" spans="1:38">
+    <row customFormat="1" r="27" s="1" spans="1:38">
       <c r="A27" s="18">
         <v>23</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="28" s="1" spans="1:38">
+    <row customFormat="1" r="28" s="1" spans="1:38">
       <c r="A28" s="18">
         <v>24</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="29" s="1" spans="1:38">
+    <row customFormat="1" r="29" s="1" spans="1:38">
       <c r="A29" s="18">
         <v>25</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="30" s="1" spans="1:38">
+    <row customFormat="1" r="30" s="1" spans="1:38">
       <c r="A30" s="18">
         <v>26</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="31" s="1" spans="1:38">
+    <row customFormat="1" r="31" s="1" spans="1:38">
       <c r="A31" s="18">
         <v>27</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="32" s="1" spans="1:38">
+    <row customFormat="1" r="32" s="1" spans="1:38">
       <c r="A32" s="18">
         <v>28</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="33" s="1" spans="1:38">
+    <row customFormat="1" r="33" s="1" spans="1:38">
       <c r="A33" s="18">
         <v>29</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="34" s="1" spans="1:38">
+    <row customFormat="1" r="34" s="1" spans="1:38">
       <c r="A34" s="18">
         <v>30</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="35" s="1" spans="1:38">
+    <row customFormat="1" r="35" s="1" spans="1:38">
       <c r="A35" s="18">
         <v>31</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="36" s="1" spans="1:38">
+    <row customFormat="1" r="36" s="1" spans="1:38">
       <c r="A36" s="18">
         <v>32</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>751.72815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="37" s="1" spans="1:38">
+    <row customFormat="1" r="37" s="1" spans="1:38">
       <c r="A37" s="18">
         <v>33</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="38" s="1" spans="1:38">
+    <row customFormat="1" r="38" s="1" spans="1:38">
       <c r="A38" s="18">
         <v>34</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="39" s="1" spans="1:38">
+    <row customFormat="1" r="39" s="1" spans="1:38">
       <c r="A39" s="18">
         <v>35</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="40" s="1" spans="1:38">
+    <row customFormat="1" r="40" s="1" spans="1:38">
       <c r="A40" s="18">
         <v>36</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="41" s="1" spans="1:38">
+    <row customFormat="1" r="41" s="1" spans="1:38">
       <c r="A41" s="18">
         <v>37</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="42" s="1" spans="1:38">
+    <row customFormat="1" r="42" s="1" spans="1:38">
       <c r="A42" s="18">
         <v>38</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="43" s="1" spans="1:38">
+    <row customFormat="1" r="43" s="1" spans="1:38">
       <c r="A43" s="18">
         <v>39</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="44" s="1" spans="1:38">
+    <row customFormat="1" r="44" s="1" spans="1:38">
       <c r="A44" s="18">
         <v>40</v>
       </c>
@@ -6997,7 +7000,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="45" s="1" spans="1:38">
+    <row customFormat="1" r="45" s="1" spans="1:38">
       <c r="A45" s="18">
         <v>41</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="46" s="1" spans="1:38">
+    <row customFormat="1" r="46" s="1" spans="1:38">
       <c r="A46" s="18">
         <v>42</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="47" s="1" spans="1:38">
+    <row customFormat="1" r="47" s="1" spans="1:38">
       <c r="A47" s="18">
         <v>43</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="48" s="1" spans="1:38">
+    <row customFormat="1" r="48" s="1" spans="1:38">
       <c r="A48" s="18">
         <v>44</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="49" s="1" spans="1:38">
+    <row customFormat="1" r="49" s="1" spans="1:38">
       <c r="A49" s="18">
         <v>45</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>1022.76815</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="18.75" r="50" s="1" spans="1:254">
+    <row customFormat="1" r="50" s="1" spans="1:254">
       <c r="A50" s="18">
         <v>46</v>
       </c>
@@ -7921,7 +7924,7 @@
       <c r="IS50" s="6"/>
       <c r="IT50" s="6"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="51" s="2" spans="1:38">
+    <row customFormat="1" r="51" s="2" spans="1:38">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -7961,7 +7964,7 @@
       <c r="AK51" s="68"/>
       <c r="AL51" s="69"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="52" s="3" spans="1:254">
+    <row customFormat="1" r="52" s="3" spans="1:254">
       <c r="A52" s="17"/>
       <c r="B52" s="40"/>
       <c r="C52" s="41"/>
